--- a/HDGraph/TestPlan HDGraph.xlsx
+++ b/HDGraph/TestPlan HDGraph.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Plan de test HDGraph</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>View options &gt; text density</t>
+  </si>
+  <si>
+    <t>Ouvrir depuis l'explorateur : clic droit sur lecteur</t>
+  </si>
+  <si>
+    <t>Ouvrir depuis l'explorateur : clic droit sur dossier</t>
+  </si>
+  <si>
+    <t>Ouvrir depuis l'explorateur : clic droit sur répertoire réseau</t>
   </si>
 </sst>
 </file>
@@ -329,13 +338,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -349,8 +358,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A8:G87" totalsRowShown="0">
-  <autoFilter ref="A8:G87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A8:G90" totalsRowShown="0">
+  <autoFilter ref="A8:G90">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -670,15 +679,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickBot="1">
       <c r="C6" s="3" t="s">
@@ -690,7 +699,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickTop="1">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1357,13 +1366,42 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
